--- a/Pipeline/Others/Notes/bit_sheet.xlsx
+++ b/Pipeline/Others/Notes/bit_sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
   <si>
     <t xml:space="preserve">SD[63] State Dirty</t>
   </si>
@@ -115,6 +115,9 @@
     <t xml:space="preserve">00</t>
   </si>
   <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -232,19 +235,19 @@
     <t xml:space="preserve">000000000000000000000000000000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">00000000000000000100000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">misa64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXL[31:30] Machine XLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARL[29:26]</t>
+  </si>
+  <si>
     <t xml:space="preserve">00000000000000000010000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">misa64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXL[31:30] Machine XLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WARL[29:26]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01</t>
   </si>
   <si>
     <t xml:space="preserve">misa32</t>
@@ -375,7 +378,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -545,7 +548,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>30</v>
@@ -554,13 +557,13 @@
         <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>27</v>
@@ -580,25 +583,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="str">
         <f aca="false">_xlfn.TEXTJOIN("", 0 , A3:Z3)</f>
-        <v>0000000000000000000000000000101000000000000000000000000010100000</v>
+        <v>0000000000000000000000000000101000000000000000000000100010100000</v>
       </c>
       <c r="C5" s="3" t="str">
         <f aca="false">_xlfn.TEXTJOIN("",1,C6:C13)</f>
-        <v>0000000A000000A0</v>
+        <v>0000000A000008A0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="str">
         <f aca="false">LEFT(B5,8)</f>
@@ -611,7 +614,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="str">
         <f aca="false">MID(B5,9,8)</f>
@@ -624,7 +627,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="str">
         <f aca="false">MID(B5,17,8)</f>
@@ -637,7 +640,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="str">
         <f aca="false">MID(B5,25,8)</f>
@@ -650,7 +653,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="str">
         <f aca="false">MID(B5,33,8)</f>
@@ -663,7 +666,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="str">
         <f aca="false">MID(B5,41,8)</f>
@@ -676,20 +679,20 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="str">
         <f aca="false">MID(B5,49,8)</f>
-        <v>00000000</v>
+        <v>00001000</v>
       </c>
       <c r="C12" s="3" t="str">
         <f aca="false">DEC2HEX(BIN2DEC(B12),2)</f>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="str">
         <f aca="false">RIGHT(B5,8)</f>
@@ -702,25 +705,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -732,22 +735,22 @@
         <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>21</v>
@@ -759,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>25</v>
@@ -770,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -797,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>30</v>
@@ -806,13 +809,13 @@
         <v>27</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>27</v>
@@ -832,20 +835,20 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="str">
         <f aca="false">_xlfn.TEXTJOIN("",1,A16:U16)</f>
-        <v>00000000000000000000000010100000</v>
+        <v>00000000000000000000100010100000</v>
       </c>
       <c r="C17" s="3" t="str">
         <f aca="false">_xlfn.TEXTJOIN("",1,C18:C21)</f>
-        <v>000000A0</v>
+        <v>000008A0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="str">
         <f aca="false">LEFT(B17,8)</f>
@@ -858,7 +861,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="str">
         <f aca="false">MID(B17,9,8)</f>
@@ -871,20 +874,20 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="str">
         <f aca="false">MID(B17,17,8)</f>
-        <v>00000000</v>
+        <v>00001000</v>
       </c>
       <c r="C20" s="3" t="str">
         <f aca="false">DEC2HEX(BIN2DEC(B20),2)</f>
-        <v>00</v>
+        <v>08</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="str">
         <f aca="false">RIGHT(B17,8)</f>
@@ -900,36 +903,36 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
@@ -953,12 +956,12 @@
         <v>27</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3" t="str">
         <f aca="false">_xlfn.TEXTJOIN("",1,A24:U24)</f>
@@ -977,7 +980,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="str">
         <f aca="false">LEFT(B25,8)</f>
@@ -996,7 +999,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="str">
         <f aca="false">MID(B25,9,8)</f>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="str">
         <f aca="false">MID(B25,17,8)</f>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="str">
         <f aca="false">RIGHT(B25,8)</f>
@@ -1064,13 +1067,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,33 +1081,33 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">_xlfn.TEXTJOIN("", 0 , A32:Z32)</f>
-        <v>1000000000000000000000000000000000000000000000000000000010000000</v>
+        <v>1000000000000000000000000000000000000000000000000000000100000000</v>
       </c>
       <c r="C34" s="3" t="str">
         <f aca="false">_xlfn.TEXTJOIN("",1,C35:C42)</f>
-        <v>8000000000000080</v>
+        <v>8000000000000100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">LEFT(B34,8)</f>
@@ -1117,7 +1120,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">MID(B34,9,8)</f>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">MID(B34,17,8)</f>
@@ -1143,7 +1146,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">MID(B34,25,8)</f>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">MID(B34,33,8)</f>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">MID(B34,41,8)</f>
@@ -1182,55 +1185,55 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">MID(B34,49,8)</f>
-        <v>00000000</v>
+        <v>00000001</v>
       </c>
       <c r="C41" s="3" t="str">
         <f aca="false">DEC2HEX(BIN2DEC(B41),2)</f>
-        <v>00</v>
+        <v>01</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">RIGHT(B34,8)</f>
-        <v>10000000</v>
+        <v>00000000</v>
       </c>
       <c r="C42" s="3" t="str">
         <f aca="false">DEC2HEX(BIN2DEC(B42),2)</f>
-        <v>80</v>
+        <v>00</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="3" t="str">
         <f aca="false">_xlfn.TEXTJOIN("",1,A45:U45)</f>
@@ -1243,7 +1246,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3" t="str">
         <f aca="false">LEFT(B46,8)</f>
@@ -1256,7 +1259,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3" t="str">
         <f aca="false">MID(B46,9,8)</f>
@@ -1269,7 +1272,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="str">
         <f aca="false">MID(B46,17,8)</f>
@@ -1282,7 +1285,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="str">
         <f aca="false">RIGHT(B46,8)</f>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
